--- a/OYM/_DocumentosComunes/POO_C32017.xlsx
+++ b/OYM/_DocumentosComunes/POO_C32017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DocumentosUniversitarios\OYM\_Documentos Comunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1019,7 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1068,14 +1068,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF92D050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF92D050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1230,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1261,17 +1255,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1287,8 +1270,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1305,53 +1312,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,8 +1724,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U94" sqref="U94"/>
+      <pane ySplit="10" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1771,19 +1757,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1804,19 +1790,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1826,19 +1812,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1848,19 +1834,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1892,19 +1878,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1958,34 +1944,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2022,24 +2008,24 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>0</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="36">
+        <v>0</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22">
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17">
         <f>IF((Y11)&gt;69,10,"")</f>
         <v>10</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="5">
         <f>IF((Y11)&gt;69,20,"")</f>
         <v>20</v>
@@ -2048,12 +2034,12 @@
         <f>IF((Y11)&gt;69,20,"")</f>
         <v>20</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="17">
         <f>IF((Y11)&gt;69,IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50))), "" )</f>
         <v>50</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="18"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2091,24 +2077,24 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22" t="str">
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="17" t="str">
         <f t="shared" ref="H12:H75" si="0">IF((Y12)&gt;69,10,"")</f>
         <v/>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="5" t="str">
         <f t="shared" ref="J12:J75" si="1">IF((Y12)&gt;69,20,"")</f>
         <v/>
@@ -2117,12 +2103,12 @@
         <f t="shared" ref="K12:K75" si="2">IF((Y12)&gt;69,20,"")</f>
         <v/>
       </c>
-      <c r="L12" s="22" t="str">
+      <c r="L12" s="17" t="str">
         <f t="shared" ref="L12:L75" si="3">IF((Y12)&gt;69,IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50))), "" )</f>
         <v/>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="18"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2142,24 +2128,24 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="22">
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2168,12 +2154,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="17">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="12"/>
       <c r="P13" s="6">
         <v>16</v>
@@ -2205,24 +2191,24 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="22">
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2231,12 +2217,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2268,24 +2254,24 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22">
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2294,12 +2280,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="17">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2334,24 +2320,24 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="22">
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2360,12 +2346,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="17">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2397,24 +2383,24 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="22">
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2423,12 +2409,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="23"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2463,24 +2449,24 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="22">
+      <c r="F18" s="32"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2489,12 +2475,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="17">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="18"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2529,24 +2515,24 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="22">
+      <c r="F19" s="32"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2555,12 +2541,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="17">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2592,24 +2578,24 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="22">
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2618,12 +2604,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="23"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2658,24 +2644,24 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="22">
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2684,12 +2670,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="18"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2724,24 +2710,24 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="22">
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2750,12 +2736,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2787,24 +2773,24 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="22" t="str">
+      <c r="F23" s="32"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2813,12 +2799,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L23" s="22" t="str">
+      <c r="L23" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="23"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="18"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2838,24 +2824,24 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="22">
+      <c r="F24" s="32"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2864,12 +2850,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="18"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2898,24 +2884,24 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="22">
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2924,12 +2910,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="17">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="23"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="18"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="6">
         <v>0</v>
@@ -2958,24 +2944,24 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="22" t="str">
+      <c r="F26" s="32"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2984,12 +2970,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="18"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -3012,24 +2998,24 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="22" t="str">
+      <c r="F27" s="32"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3038,12 +3024,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="18"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -3072,24 +3058,24 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="22">
+      <c r="F28" s="32"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3098,12 +3084,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -3138,24 +3124,24 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="22">
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3164,12 +3150,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="23"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="18"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -3204,24 +3190,24 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="22" t="str">
+      <c r="F30" s="32"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3230,12 +3216,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="18"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -3254,94 +3240,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="15" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="37" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="22">
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="5">
+      <c r="I31" s="39"/>
+      <c r="J31" s="40">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="40">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="38">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="15">
+      <c r="M31" s="41"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="6">
         <v>14</v>
       </c>
-      <c r="Q31" s="15">
-        <v>10</v>
-      </c>
-      <c r="R31" s="15">
-        <v>2</v>
-      </c>
-      <c r="S31" s="15">
-        <v>0</v>
-      </c>
-      <c r="T31" s="16">
+      <c r="Q31" s="6">
+        <v>10</v>
+      </c>
+      <c r="R31" s="6">
+        <v>2</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
         <v>6</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U31" s="6">
         <v>13</v>
       </c>
-      <c r="V31" s="15">
-        <v>2</v>
-      </c>
-      <c r="W31" s="15">
-        <v>20</v>
-      </c>
-      <c r="X31" s="15">
+      <c r="V31" s="6">
+        <v>2</v>
+      </c>
+      <c r="W31" s="6">
+        <v>20</v>
+      </c>
+      <c r="X31" s="6">
         <v>30</v>
       </c>
-      <c r="Y31" s="15">
+      <c r="Y31" s="6">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="Z31" s="15">
+      <c r="Z31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="22" t="str">
+      <c r="F32" s="32"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3350,12 +3336,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3375,24 +3361,24 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="22">
+      <c r="F33" s="32"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3401,12 +3387,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="17">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="23"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="18"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3438,24 +3424,24 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="27" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="22">
+      <c r="F34" s="32"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3464,12 +3450,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="18"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3507,24 +3493,24 @@
       </c>
     </row>
     <row r="35" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="22">
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3533,12 +3519,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="23"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="18"/>
       <c r="O35" s="12"/>
       <c r="P35" s="6">
         <v>17</v>
@@ -3573,24 +3559,24 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="22">
+      <c r="F36" s="32"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3599,12 +3585,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="17">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="23"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="18"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3639,24 +3625,24 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="22">
+      <c r="F37" s="32"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3665,12 +3651,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="17">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="23"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="18"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3705,24 +3691,24 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="22">
+      <c r="F38" s="32"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3731,12 +3717,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="23"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="18"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3771,24 +3757,24 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="27" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="22" t="str">
+      <c r="F39" s="32"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3797,12 +3783,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L39" s="22" t="str">
+      <c r="L39" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="23"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="18"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3822,24 +3808,24 @@
       </c>
     </row>
     <row r="40" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="32" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="22">
+      <c r="F40" s="24"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3848,12 +3834,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="17">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="23"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="18"/>
       <c r="O40" s="12"/>
       <c r="P40" s="6">
         <v>13</v>
@@ -3888,24 +3874,24 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="22" t="str">
+      <c r="F41" s="32"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I41" s="23"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3914,12 +3900,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L41" s="22" t="str">
+      <c r="L41" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="23"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="18"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3939,24 +3925,24 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="22">
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3965,12 +3951,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="17">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="23"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="18"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3999,24 +3985,24 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="22">
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4025,12 +4011,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="23"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="18"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -4065,24 +4051,24 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="32" t="s">
+      <c r="D44" s="23"/>
+      <c r="E44" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="22">
+      <c r="F44" s="24"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4091,12 +4077,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="17">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="23"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="18"/>
       <c r="O44" s="12"/>
       <c r="P44" s="6">
         <v>20</v>
@@ -4128,24 +4114,24 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="22">
+      <c r="F45" s="32"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4154,12 +4140,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="23"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="18"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -4191,24 +4177,24 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="22" t="str">
+      <c r="F46" s="32"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I46" s="23"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4217,12 +4203,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L46" s="22" t="str">
+      <c r="L46" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="23"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="18"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -4248,24 +4234,24 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="27" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="22">
+      <c r="F47" s="32"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I47" s="23"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4274,12 +4260,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="23"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="18"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -4314,24 +4300,24 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="31"/>
+      <c r="E48" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="22">
+      <c r="F48" s="32"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I48" s="23"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4340,12 +4326,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="23"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="18"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -4377,24 +4363,24 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="22" t="str">
+      <c r="F49" s="32"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I49" s="23"/>
+      <c r="I49" s="18"/>
       <c r="J49" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4403,12 +4389,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L49" s="22" t="str">
+      <c r="L49" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="23"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="18"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -4431,24 +4417,24 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="22">
+      <c r="F50" s="32"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I50" s="23"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4457,12 +4443,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="17">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="18"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -4500,24 +4486,24 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27" t="s">
+      <c r="D51" s="31"/>
+      <c r="E51" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="22">
+      <c r="F51" s="32"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I51" s="23"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4526,12 +4512,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="17">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="18"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -4563,24 +4549,24 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="27" t="s">
+      <c r="D52" s="31"/>
+      <c r="E52" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="22">
+      <c r="F52" s="32"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I52" s="23"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4589,12 +4575,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="23"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="18"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4629,24 +4615,24 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="31"/>
+      <c r="E53" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="22">
+      <c r="F53" s="32"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I53" s="23"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4655,12 +4641,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="23"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="18"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4698,24 +4684,24 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="27" t="s">
+      <c r="D54" s="31"/>
+      <c r="E54" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="22" t="str">
+      <c r="F54" s="32"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I54" s="23"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4724,12 +4710,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L54" s="22" t="str">
+      <c r="L54" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="23"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="18"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4749,24 +4735,24 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="27" t="s">
+      <c r="D55" s="31"/>
+      <c r="E55" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="22" t="str">
+      <c r="F55" s="32"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I55" s="23"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4775,12 +4761,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L55" s="22" t="str">
+      <c r="L55" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="23"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4809,24 +4795,24 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="27" t="s">
+      <c r="D56" s="31"/>
+      <c r="E56" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="22">
+      <c r="F56" s="32"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I56" s="23"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4835,12 +4821,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M56" s="24"/>
-      <c r="N56" s="23"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="18"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4872,24 +4858,24 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27" t="s">
+      <c r="D57" s="31"/>
+      <c r="E57" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="22">
+      <c r="F57" s="32"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I57" s="23"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4898,12 +4884,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="17">
         <f t="shared" si="3"/>
         <v>48.5</v>
       </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="23"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="18"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4935,24 +4921,24 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="22">
+      <c r="F58" s="32"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I58" s="23"/>
+      <c r="I58" s="18"/>
       <c r="J58" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4961,12 +4947,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L58" s="22">
+      <c r="L58" s="17">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="23"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="18"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -5001,24 +4987,24 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="31"/>
+      <c r="E59" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="22">
+      <c r="F59" s="32"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I59" s="23"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5027,12 +5013,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L59" s="17">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="18"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -5064,24 +5050,24 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="22">
+      <c r="F60" s="32"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I60" s="23"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5090,12 +5076,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L60" s="17">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="23"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="18"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -5130,24 +5116,24 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="22">
+      <c r="F61" s="32"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I61" s="23"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5156,12 +5142,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L61" s="17">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M61" s="24"/>
-      <c r="N61" s="23"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="18"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -5193,24 +5179,24 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="31"/>
+      <c r="E62" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="22" t="str">
+      <c r="F62" s="32"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I62" s="23"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5219,12 +5205,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L62" s="22" t="str">
+      <c r="L62" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M62" s="24"/>
-      <c r="N62" s="23"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="18"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -5250,24 +5236,24 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="31"/>
+      <c r="E63" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="22" t="str">
+      <c r="F63" s="32"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I63" s="23"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5276,12 +5262,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L63" s="22" t="str">
+      <c r="L63" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="23"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="18"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -5301,24 +5287,24 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="27" t="s">
+      <c r="D64" s="31"/>
+      <c r="E64" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="22">
+      <c r="F64" s="32"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I64" s="23"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5327,12 +5313,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L64" s="22">
+      <c r="L64" s="17">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="M64" s="24"/>
-      <c r="N64" s="23"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="18"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -5370,24 +5356,24 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="22" t="str">
+      <c r="F65" s="32"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I65" s="23"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5396,12 +5382,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L65" s="22" t="str">
+      <c r="L65" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="23"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="18"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -5421,24 +5407,24 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="32" t="s">
+      <c r="B66" s="35"/>
+      <c r="C66" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="32" t="s">
+      <c r="D66" s="23"/>
+      <c r="E66" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="22">
+      <c r="F66" s="24"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I66" s="23"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5447,12 +5433,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L66" s="22">
+      <c r="L66" s="17">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M66" s="24"/>
-      <c r="N66" s="23"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="18"/>
       <c r="O66" s="12"/>
       <c r="P66" s="6">
         <v>13</v>
@@ -5484,24 +5470,24 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="27" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="22">
+      <c r="F67" s="32"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I67" s="23"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5510,12 +5496,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L67" s="17">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="M67" s="24"/>
-      <c r="N67" s="23"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="18"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -5553,24 +5539,24 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="29"/>
+      <c r="C68" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="27" t="s">
+      <c r="D68" s="31"/>
+      <c r="E68" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="22">
+      <c r="F68" s="32"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I68" s="23"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5579,12 +5565,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L68" s="22">
+      <c r="L68" s="17">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="M68" s="24"/>
-      <c r="N68" s="23"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="18"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -5619,24 +5605,24 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="27" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="22">
+      <c r="F69" s="32"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I69" s="23"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5645,12 +5631,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L69" s="17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M69" s="24"/>
-      <c r="N69" s="23"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="18"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -5676,24 +5662,24 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="29"/>
+      <c r="C70" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="22">
+      <c r="F70" s="32"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I70" s="23"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5702,12 +5688,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L70" s="22">
+      <c r="L70" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M70" s="24"/>
-      <c r="N70" s="23"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="18"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -5745,24 +5731,24 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="27" t="s">
+      <c r="D71" s="31"/>
+      <c r="E71" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="22">
+      <c r="F71" s="32"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I71" s="23"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5771,12 +5757,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="17">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="M71" s="24"/>
-      <c r="N71" s="23"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="18"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -5808,24 +5794,24 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="27" t="s">
+      <c r="D72" s="31"/>
+      <c r="E72" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="22">
+      <c r="F72" s="32"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I72" s="23"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5834,12 +5820,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L72" s="17">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M72" s="24"/>
-      <c r="N72" s="23"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="18"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -5874,24 +5860,24 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="27" t="s">
+      <c r="D73" s="31"/>
+      <c r="E73" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="22">
+      <c r="F73" s="32"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I73" s="23"/>
+      <c r="I73" s="18"/>
       <c r="J73" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5900,12 +5886,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M73" s="24"/>
-      <c r="N73" s="23"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="18"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5940,24 +5926,24 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="27" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="22">
+      <c r="F74" s="32"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I74" s="23"/>
+      <c r="I74" s="18"/>
       <c r="J74" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5966,12 +5952,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L74" s="22">
+      <c r="L74" s="17">
         <f t="shared" si="3"/>
         <v>29.333333333333343</v>
       </c>
-      <c r="M74" s="24"/>
-      <c r="N74" s="23"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="18"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -6006,24 +5992,24 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="27" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="22">
+      <c r="F75" s="32"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I75" s="23"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6032,12 +6018,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L75" s="17">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="23"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="18"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -6072,24 +6058,24 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="27" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="22" t="str">
+      <c r="F76" s="32"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="17" t="str">
         <f t="shared" ref="H76:H110" si="5">IF((Y76)&gt;69,10,"")</f>
         <v/>
       </c>
-      <c r="I76" s="23"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="5" t="str">
         <f t="shared" ref="J76:J110" si="6">IF((Y76)&gt;69,20,"")</f>
         <v/>
@@ -6098,12 +6084,12 @@
         <f t="shared" ref="K76:K110" si="7">IF((Y76)&gt;69,20,"")</f>
         <v/>
       </c>
-      <c r="L76" s="22" t="str">
+      <c r="L76" s="17" t="str">
         <f t="shared" ref="L76:L110" si="8">IF((Y76)&gt;69,IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50))), "" )</f>
         <v/>
       </c>
-      <c r="M76" s="24"/>
-      <c r="N76" s="23"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -6123,24 +6109,24 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="27" t="s">
+      <c r="D77" s="31"/>
+      <c r="E77" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="22">
+      <c r="F77" s="32"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I77" s="23"/>
+      <c r="I77" s="18"/>
       <c r="J77" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6149,12 +6135,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L77" s="22">
+      <c r="L77" s="17">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="23"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="18"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -6186,24 +6172,24 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="27" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="22">
+      <c r="F78" s="32"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I78" s="23"/>
+      <c r="I78" s="18"/>
       <c r="J78" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6212,12 +6198,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L78" s="22">
+      <c r="L78" s="17">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="M78" s="24"/>
-      <c r="N78" s="23"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="18"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -6249,24 +6235,24 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="22">
+      <c r="F79" s="32"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I79" s="23"/>
+      <c r="I79" s="18"/>
       <c r="J79" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6275,12 +6261,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="17">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="M79" s="24"/>
-      <c r="N79" s="23"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="18"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -6312,24 +6298,24 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
+      <c r="B80" s="29"/>
+      <c r="C80" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="27" t="s">
+      <c r="D80" s="31"/>
+      <c r="E80" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="22" t="str">
+      <c r="F80" s="32"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I80" s="23"/>
+      <c r="I80" s="18"/>
       <c r="J80" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6338,12 +6324,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L80" s="22" t="str">
+      <c r="L80" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="23"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="18"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -6372,24 +6358,24 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="27" t="s">
+      <c r="D81" s="31"/>
+      <c r="E81" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="22">
+      <c r="F81" s="32"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I81" s="23"/>
+      <c r="I81" s="18"/>
       <c r="J81" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6398,12 +6384,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L81" s="17">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="23"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="18"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -6441,24 +6427,24 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="31"/>
+      <c r="E82" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="22">
+      <c r="F82" s="32"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I82" s="23"/>
+      <c r="I82" s="18"/>
       <c r="J82" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6467,12 +6453,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L82" s="22">
+      <c r="L82" s="17">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="M82" s="24"/>
-      <c r="N82" s="23"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="18"/>
       <c r="O82" s="2"/>
       <c r="P82">
         <v>10</v>
@@ -6504,24 +6490,24 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="27" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="22">
+      <c r="F83" s="32"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I83" s="23"/>
+      <c r="I83" s="18"/>
       <c r="J83" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6530,12 +6516,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L83" s="17">
         <f t="shared" si="8"/>
         <v>47.75</v>
       </c>
-      <c r="M83" s="24"/>
-      <c r="N83" s="23"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="18"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -6573,24 +6559,24 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27" t="s">
+      <c r="B84" s="29"/>
+      <c r="C84" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="27" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="22">
+      <c r="F84" s="32"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I84" s="23"/>
+      <c r="I84" s="18"/>
       <c r="J84" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6599,12 +6585,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L84" s="22">
+      <c r="L84" s="17">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="18"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -6636,24 +6622,24 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="27" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="22">
+      <c r="F85" s="32"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I85" s="23"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6662,12 +6648,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L85" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="23"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="18"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -6702,24 +6688,24 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="27" t="s">
+      <c r="D86" s="31"/>
+      <c r="E86" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="22">
+      <c r="F86" s="32"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I86" s="23"/>
+      <c r="I86" s="18"/>
       <c r="J86" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6728,12 +6714,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L86" s="22">
+      <c r="L86" s="17">
         <f t="shared" si="8"/>
         <v>20.5</v>
       </c>
-      <c r="M86" s="24"/>
-      <c r="N86" s="23"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="18"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -6765,24 +6751,24 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="27" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="22" t="str">
+      <c r="F87" s="32"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I87" s="23"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6791,12 +6777,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L87" s="22" t="str">
+      <c r="L87" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M87" s="24"/>
-      <c r="N87" s="23"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="18"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -6816,24 +6802,24 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27" t="s">
+      <c r="B88" s="29"/>
+      <c r="C88" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="22">
+      <c r="F88" s="32"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I88" s="23"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6842,12 +6828,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L88" s="22">
+      <c r="L88" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="23"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="18"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -6879,24 +6865,24 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27" t="s">
+      <c r="B89" s="29"/>
+      <c r="C89" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="27" t="s">
+      <c r="D89" s="31"/>
+      <c r="E89" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="22">
+      <c r="F89" s="32"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I89" s="23"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6905,12 +6891,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L89" s="22">
+      <c r="L89" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="23"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="18"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -6942,24 +6928,24 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="27" t="s">
+      <c r="D90" s="31"/>
+      <c r="E90" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="22">
+      <c r="F90" s="32"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I90" s="23"/>
+      <c r="I90" s="18"/>
       <c r="J90" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -6968,12 +6954,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L90" s="22">
+      <c r="L90" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M90" s="24"/>
-      <c r="N90" s="23"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="18"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -7005,24 +6991,24 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="27" t="s">
+      <c r="D91" s="31"/>
+      <c r="E91" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="22">
+      <c r="F91" s="32"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I91" s="23"/>
+      <c r="I91" s="18"/>
       <c r="J91" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7031,12 +7017,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L91" s="22">
+      <c r="L91" s="17">
         <f t="shared" si="8"/>
         <v>20.666666666666671</v>
       </c>
-      <c r="M91" s="24"/>
-      <c r="N91" s="23"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="18"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -7071,24 +7057,24 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="29"/>
+      <c r="C92" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="27" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="22" t="str">
+      <c r="F92" s="32"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I92" s="23"/>
+      <c r="I92" s="18"/>
       <c r="J92" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7097,12 +7083,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L92" s="22" t="str">
+      <c r="L92" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M92" s="24"/>
-      <c r="N92" s="23"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="18"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -7134,24 +7120,24 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="27" t="s">
+      <c r="D93" s="31"/>
+      <c r="E93" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="22" t="str">
+      <c r="F93" s="32"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I93" s="23"/>
+      <c r="I93" s="18"/>
       <c r="J93" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7160,12 +7146,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L93" s="22" t="str">
+      <c r="L93" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M93" s="24"/>
-      <c r="N93" s="23"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="18"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -7197,24 +7183,24 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="27" t="s">
+      <c r="D94" s="31"/>
+      <c r="E94" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="22">
+      <c r="F94" s="32"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I94" s="23"/>
+      <c r="I94" s="18"/>
       <c r="J94" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7223,12 +7209,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L94" s="22">
+      <c r="L94" s="17">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="M94" s="24"/>
-      <c r="N94" s="23"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="18"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -7257,24 +7243,24 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="27" t="s">
+      <c r="D95" s="31"/>
+      <c r="E95" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="22">
+      <c r="F95" s="32"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I95" s="23"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7283,12 +7269,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L95" s="22">
+      <c r="L95" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M95" s="24"/>
-      <c r="N95" s="23"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="18"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -7320,24 +7306,24 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="27" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="22">
+      <c r="F96" s="32"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I96" s="23"/>
+      <c r="I96" s="18"/>
       <c r="J96" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7346,12 +7332,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L96" s="22">
+      <c r="L96" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M96" s="24"/>
-      <c r="N96" s="23"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="18"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -7380,24 +7366,24 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="22">
+      <c r="F97" s="32"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I97" s="23"/>
+      <c r="I97" s="18"/>
       <c r="J97" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7406,12 +7392,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L97" s="22">
+      <c r="L97" s="17">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="M97" s="24"/>
-      <c r="N97" s="23"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="18"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -7443,24 +7429,24 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="27" t="s">
+      <c r="D98" s="31"/>
+      <c r="E98" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="29"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="22">
+      <c r="F98" s="32"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I98" s="23"/>
+      <c r="I98" s="18"/>
       <c r="J98" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7469,12 +7455,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L98" s="22">
+      <c r="L98" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M98" s="24"/>
-      <c r="N98" s="23"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="18"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -7512,24 +7498,24 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27" t="s">
+      <c r="B99" s="29"/>
+      <c r="C99" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="27" t="s">
+      <c r="D99" s="31"/>
+      <c r="E99" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="22">
+      <c r="F99" s="32"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I99" s="23"/>
+      <c r="I99" s="18"/>
       <c r="J99" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7538,12 +7524,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L99" s="22">
+      <c r="L99" s="17">
         <f t="shared" si="8"/>
         <v>48.75</v>
       </c>
-      <c r="M99" s="24"/>
-      <c r="N99" s="23"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="18"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -7581,24 +7567,24 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="29"/>
+      <c r="C100" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="27" t="s">
+      <c r="D100" s="31"/>
+      <c r="E100" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="22">
+      <c r="F100" s="32"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I100" s="23"/>
+      <c r="I100" s="18"/>
       <c r="J100" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7607,12 +7593,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L100" s="22">
+      <c r="L100" s="17">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="M100" s="24"/>
-      <c r="N100" s="23"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="18"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -7647,24 +7633,24 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="29"/>
+      <c r="C101" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="27" t="s">
+      <c r="D101" s="31"/>
+      <c r="E101" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="22">
+      <c r="F101" s="32"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I101" s="23"/>
+      <c r="I101" s="18"/>
       <c r="J101" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7673,12 +7659,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L101" s="22">
+      <c r="L101" s="17">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="M101" s="24"/>
-      <c r="N101" s="23"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="18"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -7713,24 +7699,24 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27" t="s">
+      <c r="B102" s="29"/>
+      <c r="C102" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="27" t="s">
+      <c r="D102" s="31"/>
+      <c r="E102" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="29"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="22">
+      <c r="F102" s="32"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I102" s="23"/>
+      <c r="I102" s="18"/>
       <c r="J102" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7739,12 +7725,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L102" s="22">
+      <c r="L102" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M102" s="24"/>
-      <c r="N102" s="23"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="18"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -7782,24 +7768,24 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27" t="s">
+      <c r="B103" s="29"/>
+      <c r="C103" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27" t="s">
+      <c r="D103" s="31"/>
+      <c r="E103" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="22">
+      <c r="F103" s="32"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I103" s="23"/>
+      <c r="I103" s="18"/>
       <c r="J103" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7808,12 +7794,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L103" s="22">
+      <c r="L103" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M103" s="24"/>
-      <c r="N103" s="23"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="18"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -7845,24 +7831,24 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27" t="s">
+      <c r="B104" s="29"/>
+      <c r="C104" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="27" t="s">
+      <c r="D104" s="31"/>
+      <c r="E104" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="22" t="str">
+      <c r="F104" s="32"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I104" s="23"/>
+      <c r="I104" s="18"/>
       <c r="J104" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7871,12 +7857,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L104" s="22" t="str">
+      <c r="L104" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M104" s="24"/>
-      <c r="N104" s="23"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="18"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -7911,24 +7897,24 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27" t="s">
+      <c r="D105" s="31"/>
+      <c r="E105" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="22">
+      <c r="F105" s="32"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I105" s="23"/>
+      <c r="I105" s="18"/>
       <c r="J105" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -7937,12 +7923,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L105" s="22">
+      <c r="L105" s="17">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="M105" s="24"/>
-      <c r="N105" s="23"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="18"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -7974,24 +7960,24 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="27" t="s">
+      <c r="D106" s="31"/>
+      <c r="E106" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="29"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="22">
+      <c r="F106" s="32"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I106" s="23"/>
+      <c r="I106" s="18"/>
       <c r="J106" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -8000,12 +7986,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L106" s="22">
+      <c r="L106" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M106" s="24"/>
-      <c r="N106" s="23"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="18"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -8040,24 +8026,24 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27" t="s">
+      <c r="D107" s="31"/>
+      <c r="E107" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="22">
+      <c r="F107" s="32"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I107" s="23"/>
+      <c r="I107" s="18"/>
       <c r="J107" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -8066,12 +8052,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L107" s="22">
+      <c r="L107" s="17">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="M107" s="24"/>
-      <c r="N107" s="23"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="18"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -8106,24 +8092,24 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="29"/>
+      <c r="C108" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="27" t="s">
+      <c r="D108" s="31"/>
+      <c r="E108" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="29"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="22">
+      <c r="F108" s="32"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I108" s="23"/>
+      <c r="I108" s="18"/>
       <c r="J108" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -8132,12 +8118,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L108" s="22">
+      <c r="L108" s="17">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="M108" s="24"/>
-      <c r="N108" s="23"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="18"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -8169,24 +8155,24 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27" t="s">
+      <c r="B109" s="29"/>
+      <c r="C109" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="27" t="s">
+      <c r="D109" s="31"/>
+      <c r="E109" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="22">
+      <c r="F109" s="32"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="17">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I109" s="23"/>
+      <c r="I109" s="18"/>
       <c r="J109" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -8195,12 +8181,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="L109" s="22">
+      <c r="L109" s="17">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M109" s="24"/>
-      <c r="N109" s="23"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="18"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -8232,22 +8218,22 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="19" t="s">
+      <c r="A110" s="36"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="D110" s="20"/>
-      <c r="E110" s="19" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="F110" s="21"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="22" t="str">
+      <c r="F110" s="16"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I110" s="23"/>
+      <c r="I110" s="18"/>
       <c r="J110" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8256,12 +8242,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L110" s="22" t="str">
+      <c r="L110" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M110" s="24"/>
-      <c r="N110" s="23"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="18"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -8284,26 +8270,26 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="23"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="18"/>
       <c r="J111" s="5" t="str">
         <f t="shared" ref="J111" si="10">IF((Y111)&gt;70,20,"")</f>
         <v/>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="22" t="str">
+      <c r="L111" s="17" t="str">
         <f t="shared" ref="L111:L113" si="11">IF((Y111)&gt;70,IF((Y111-50)&gt;50,50,IF((Y111-50)&lt;0,0,(Y111-50))), "" )</f>
         <v/>
       </c>
-      <c r="M111" s="24"/>
-      <c r="N111" s="23"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="18"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -8323,23 +8309,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="23"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="18"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="22" t="str">
+      <c r="L112" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M112" s="24"/>
-      <c r="N112" s="23"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="18"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -8359,23 +8345,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="23"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="18"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="22" t="str">
+      <c r="L113" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M113" s="24"/>
-      <c r="N113" s="23"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="18"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -8405,39 +8391,486 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -8462,486 +8895,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
